--- a/汇硕/汇硕光电材料清单/风险清单.xlsx
+++ b/汇硕/汇硕光电材料清单/风险清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -43,13 +43,13 @@
     <t>风险告知牌</t>
   </si>
   <si>
-    <t>烤箱房</t>
-  </si>
-  <si>
-    <t>车床作业</t>
-  </si>
-  <si>
-    <t>机械伤害</t>
+    <t>UV室</t>
+  </si>
+  <si>
+    <t>烤镜片</t>
+  </si>
+  <si>
+    <t>火灾</t>
   </si>
   <si>
     <t>Ⅲ</t>
@@ -67,20 +67,17 @@
 3.及时送医</t>
   </si>
   <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配电柜
+</t>
+  </si>
+  <si>
+    <t>电工</t>
+  </si>
+  <si>
     <t>触电</t>
-  </si>
-  <si>
-    <t>模切机</t>
-  </si>
-  <si>
-    <t>模切</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配电间
-</t>
-  </si>
-  <si>
-    <t>电工</t>
   </si>
   <si>
     <t>当班班长</t>
@@ -97,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,8 +114,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -139,15 +174,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,100 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +273,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,61 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,61 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,42 +447,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -703,26 +700,89 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,84 +797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,137 +817,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,18 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1109,50 +1079,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>833120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1438237</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>781386</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5595620" y="1722120"/>
-          <a:ext cx="604520" cy="697230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1196,50 +1122,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>306705</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1221105</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1026160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5069205" y="2795270"/>
-          <a:ext cx="914400" cy="848360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>33020</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
@@ -1258,7 +1140,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1284,25 +1166,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65405</xdr:colOff>
+      <xdr:colOff>880745</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>659318</xdr:colOff>
+      <xdr:colOff>1518920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>761477</xdr:rowOff>
+      <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="16" name="图片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1315,8 +1197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4827905" y="3927475"/>
-          <a:ext cx="593725" cy="670560"/>
+          <a:off x="5643245" y="4312920"/>
+          <a:ext cx="638175" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,25 +1210,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1182370</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>771525</xdr:rowOff>
+      <xdr:colOff>728980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1359,8 +1241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5063490" y="4808220"/>
-          <a:ext cx="881380" cy="676275"/>
+          <a:off x="4867910" y="4312920"/>
+          <a:ext cx="623570" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1372,43 +1254,41 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>814070</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1452806</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>775260</xdr:rowOff>
+      <xdr:colOff>1489710</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>795020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5576570" y="3973195"/>
-          <a:ext cx="638175" cy="638175"/>
+          <a:off x="5610225" y="1743075"/>
+          <a:ext cx="641985" cy="690245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1416,43 +1296,41 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295910</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1195705</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:colOff>1104265</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>953770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="7" name="图片 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5058410" y="5684520"/>
-          <a:ext cx="899795" cy="609600"/>
+          <a:off x="5162550" y="2922270"/>
+          <a:ext cx="704215" cy="648970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1718,13 +1596,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="6" width="3.375" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
@@ -1801,89 +1679,42 @@
       <c r="H3" s="18"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" ht="69" customHeight="1" spans="1:9">
-      <c r="A4" s="8">
+    <row r="4" ht="123" customHeight="1" spans="1:9">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" ht="72" customHeight="1" spans="1:9">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" ht="58.5" spans="1:9">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="25"/>
+      <c r="I4" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
